--- a/Excel/storeandverify.xlsx
+++ b/Excel/storeandverify.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81652" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87154" uniqueCount="175">
   <si>
     <t/>
   </si>
@@ -541,6 +541,9 @@
   </si>
   <si>
     <t>(123) 456-7890</t>
+  </si>
+  <si>
+    <t>E-Statement &amp; Paper</t>
   </si>
 </sst>
 </file>
@@ -927,57 +930,57 @@
     </row>
     <row r="6">
       <c r="B6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="s">
-        <v>130</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="s">
-        <v>130</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -987,37 +990,37 @@
     </row>
     <row r="18">
       <c r="B18" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" t="s">
-        <v>0</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25">
@@ -1027,7 +1030,7 @@
     </row>
     <row r="26">
       <c r="B26" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27">
@@ -1042,12 +1045,12 @@
     </row>
     <row r="29">
       <c r="B29" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" t="s">
-        <v>0</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31">
@@ -1057,7 +1060,7 @@
     </row>
     <row r="32">
       <c r="B32" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33">
@@ -1067,7 +1070,7 @@
     </row>
     <row r="34">
       <c r="B34" t="s">
-        <v>0</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35">
@@ -1077,12 +1080,12 @@
     </row>
     <row r="36">
       <c r="B36" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38">
@@ -1097,7 +1100,7 @@
     </row>
     <row r="40">
       <c r="B40" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41">
@@ -1107,7 +1110,7 @@
     </row>
     <row r="42">
       <c r="B42" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43">
@@ -1117,12 +1120,12 @@
     </row>
     <row r="44">
       <c r="B44" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45">
       <c r="B45" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46">
@@ -1132,17 +1135,17 @@
     </row>
     <row r="47">
       <c r="B47" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48">
       <c r="B48" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49">
       <c r="B49" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50">
@@ -1152,7 +1155,7 @@
     </row>
     <row r="51">
       <c r="B51" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52">

--- a/Excel/storeandverify.xlsx
+++ b/Excel/storeandverify.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87154" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89070" uniqueCount="179">
   <si>
     <t/>
   </si>
@@ -544,6 +544,18 @@
   </si>
   <si>
     <t>E-Statement &amp; Paper</t>
+  </si>
+  <si>
+    <t>1223</t>
+  </si>
+  <si>
+    <t>1224</t>
+  </si>
+  <si>
+    <t>11234</t>
+  </si>
+  <si>
+    <t>File Upload/Download via OLBB</t>
   </si>
 </sst>
 </file>
@@ -1015,7 +1027,7 @@
     </row>
     <row r="23">
       <c r="B23" t="s">
-        <v>9</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24">
@@ -1045,7 +1057,7 @@
     </row>
     <row r="29">
       <c r="B29" t="s">
-        <v>9</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30">
@@ -1065,32 +1077,32 @@
     </row>
     <row r="33">
       <c r="B33" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" t="s">
-        <v>99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" t="s">
-        <v>0</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" t="s">
-        <v>0</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39">
@@ -1100,27 +1112,27 @@
     </row>
     <row r="40">
       <c r="B40" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="B43" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44">
       <c r="B44" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1130,12 +1142,12 @@
     </row>
     <row r="46">
       <c r="B46" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47">
       <c r="B47" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1150,17 +1162,17 @@
     </row>
     <row r="50">
       <c r="B50" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51">
       <c r="B51" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="B52" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53">
@@ -1170,17 +1182,17 @@
     </row>
     <row r="54">
       <c r="B54" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55">
       <c r="B55" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56">
       <c r="B56" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57">
@@ -1190,32 +1202,32 @@
     </row>
     <row r="58">
       <c r="B58" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59">
       <c r="B59" t="s">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60">
       <c r="B60" t="s">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61">
       <c r="B61" t="s">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62">
       <c r="B62" t="s">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63">
       <c r="B63" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64">
@@ -1225,17 +1237,17 @@
     </row>
     <row r="65">
       <c r="B65" t="s">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="66">
       <c r="B66" t="s">
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67">
       <c r="B67" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68">
@@ -1250,7 +1262,7 @@
     </row>
     <row r="70">
       <c r="B70" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71">
@@ -1265,12 +1277,12 @@
     </row>
     <row r="73">
       <c r="B73" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="B74" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75">
@@ -1280,32 +1292,32 @@
     </row>
     <row r="76">
       <c r="B76" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77">
       <c r="B77" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78">
       <c r="B78" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79">
       <c r="B79" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80">
       <c r="B80" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81">
       <c r="B81" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82">

--- a/Excel/storeandverify.xlsx
+++ b/Excel/storeandverify.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView windowHeight="12650" windowWidth="22260" xWindow="0" yWindow="0"/>
+    <workbookView windowHeight="12645" windowWidth="22260" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
@@ -19,543 +19,462 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89070" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7438" uniqueCount="152">
+  <si>
+    <t>sugar kane</t>
+  </si>
+  <si>
+    <t>Ficken Karen</t>
+  </si>
+  <si>
+    <t>232323</t>
+  </si>
+  <si>
+    <t>343434</t>
+  </si>
+  <si>
+    <t>380151359</t>
+  </si>
+  <si>
+    <t>2920139108</t>
+  </si>
+  <si>
+    <t>Individual Account Level (Separate Billing)</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>4804889027</t>
+  </si>
+  <si>
+    <t>E-Statement Only (Standard)</t>
+  </si>
+  <si>
+    <t>Paper Report (non-standard)</t>
+  </si>
+  <si>
+    <t>8274011116</t>
+  </si>
+  <si>
+    <t>2 years (fees may apply)</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Reporting Details</t>
+  </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>sugar kane</t>
-  </si>
-  <si>
-    <t>Ficken Karen</t>
-  </si>
-  <si>
-    <t>232323</t>
-  </si>
-  <si>
-    <t>343434</t>
-  </si>
-  <si>
-    <t>380151359</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>2920139108</t>
-  </si>
-  <si>
-    <t>Individual Account Level (Separate Billing)</t>
-  </si>
-  <si>
-    <t>E-Statement Only (Standard)</t>
+    <t>E-Statement &amp; Paper</t>
+  </si>
+  <si>
+    <t>Yes (fees may apply)</t>
+  </si>
+  <si>
+    <t>4 months (fees apply)</t>
+  </si>
+  <si>
+    <t>9902900000000380151359</t>
+  </si>
+  <si>
+    <t>Debit &amp; Credit</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>Draw &amp; View</t>
+  </si>
+  <si>
+    <t>Retail</t>
+  </si>
+  <si>
+    <t>Milwaukee, WI</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>1213</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Discard</t>
+  </si>
+  <si>
+    <t>Send to BMO International Collections</t>
+  </si>
+  <si>
+    <t>Max 250 (standard)</t>
+  </si>
+  <si>
+    <t>Monday-Friday(Standard)</t>
+  </si>
+  <si>
+    <t>Secure email (2 max)</t>
+  </si>
+  <si>
+    <t>sandeep@gmail.com</t>
+  </si>
+  <si>
+    <t>No(standard)</t>
+  </si>
+  <si>
+    <t>1232</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Other (Please specify)</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>1233</t>
+  </si>
+  <si>
+    <t>Required</t>
+  </si>
+  <si>
+    <t>Monday-Saturday</t>
+  </si>
+  <si>
+    <t>File Transfer via Transmission</t>
+  </si>
+  <si>
+    <t>Transmit Invoice File for Matching</t>
+  </si>
+  <si>
+    <t>Checks only</t>
+  </si>
+  <si>
+    <t>Front only</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>90 Days(standard)</t>
+  </si>
+  <si>
+    <t>Individual Lockbox Per CD (by lockbox)</t>
+  </si>
+  <si>
+    <t>Single Copy(standard)</t>
+  </si>
+  <si>
+    <t>Weekly</t>
+  </si>
+  <si>
+    <t>Courier</t>
+  </si>
+  <si>
+    <t>UPS</t>
+  </si>
+  <si>
+    <t>Air</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Messenger</t>
+  </si>
+  <si>
+    <t>Check Amount</t>
+  </si>
+  <si>
+    <t>Alphanumeric</t>
+  </si>
+  <si>
+    <t>BAI</t>
+  </si>
+  <si>
+    <t>Other (please specify)</t>
+  </si>
+  <si>
+    <t>Wholesale/Basic</t>
+  </si>
+  <si>
+    <t>Max 50 (Standard)</t>
+  </si>
+  <si>
+    <t>Bradenton, FL</t>
+  </si>
+  <si>
+    <t>Return</t>
+  </si>
+  <si>
+    <t>Other (1-49, please specify)</t>
+  </si>
+  <si>
+    <t>def po</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>Hybrid</t>
+  </si>
+  <si>
+    <t>Minneapolis, MN</t>
+  </si>
+  <si>
+    <t>Return and Do Not Process</t>
+  </si>
+  <si>
+    <t>1223</t>
+  </si>
+  <si>
+    <t>1224</t>
+  </si>
+  <si>
+    <t>11234</t>
+  </si>
+  <si>
+    <t>File Upload/Download via OLBB</t>
+  </si>
+  <si>
+    <t>Telephone</t>
+  </si>
+  <si>
+    <t>None (Standard)</t>
+  </si>
+  <si>
+    <t>Domestic</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>OLBB</t>
+  </si>
+  <si>
+    <t>Both</t>
   </si>
   <si>
     <t>abc@gmail.com</t>
   </si>
   <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>BMO Client</t>
+  </si>
+  <si>
+    <t>International</t>
+  </si>
+  <si>
+    <t>Third Party</t>
+  </si>
+  <si>
+    <t>Atlanta</t>
+  </si>
+  <si>
+    <t>ALABAMA</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>10001</t>
+  </si>
+  <si>
+    <t>321</t>
+  </si>
+  <si>
+    <t>Naveen SD</t>
+  </si>
+  <si>
+    <t>Naveen</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>DVG</t>
+  </si>
+  <si>
+    <t>ALASKA</t>
+  </si>
+  <si>
+    <t>(121) 212-1212</t>
+  </si>
+  <si>
+    <t>(123) 456-7890</t>
+  </si>
+  <si>
+    <t>Dallas, TX</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>No Sorting Required(Standard)</t>
+  </si>
+  <si>
+    <t>Maximum 50 (Standard)</t>
+  </si>
+  <si>
+    <t>Monthly (Standard)</t>
+  </si>
+  <si>
+    <t>Match:Check photo matched to back-up(no staple)</t>
+  </si>
+  <si>
+    <t>USPS First Class</t>
+  </si>
+  <si>
+    <t>gale</t>
+  </si>
+  <si>
+    <t>Atlanta, GA</t>
+  </si>
+  <si>
+    <t>Sorting Required</t>
+  </si>
+  <si>
+    <t>Other (1-49) please specify</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>Check Amount/Routing Transit Number</t>
+  </si>
+  <si>
+    <t>Numeric</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>Monday-Friday(standard)</t>
+  </si>
+  <si>
+    <t>Other(Please Specify)</t>
+  </si>
+  <si>
+    <t>Checks, Invoices/Coupons &amp; All associated backup including correspondence only</t>
+  </si>
+  <si>
+    <t>Front and Back</t>
+  </si>
+  <si>
+    <t>Black &amp; White</t>
+  </si>
+  <si>
+    <t>360 days</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>Individual Lockbox per CD (by lockbox)</t>
+  </si>
+  <si>
+    <t>Single Copy (standard)</t>
+  </si>
+  <si>
+    <t>Monthly(standard)</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>Addison, IL</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>NSD</t>
+  </si>
+  <si>
+    <t>1234567890</t>
+  </si>
+  <si>
+    <t>Create Only</t>
+  </si>
+  <si>
+    <t>Credits</t>
+  </si>
+  <si>
+    <t>1 year (fees may apply)</t>
+  </si>
+  <si>
+    <t>Totals Only</t>
+  </si>
+  <si>
+    <t>1 year (fees apply)</t>
+  </si>
+  <si>
+    <t>9902900000002920139108</t>
+  </si>
+  <si>
+    <t>Standard (Central Billing)</t>
+  </si>
+  <si>
     <t>Electronic Report (standard)</t>
   </si>
   <si>
-    <t>xyz@gmail.com</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>1 year (fees may apply)</t>
-  </si>
-  <si>
-    <t>Reporting Details</t>
-  </si>
-  <si>
-    <t>4 months (fees apply)</t>
-  </si>
-  <si>
-    <t>9902900000000380151359</t>
-  </si>
-  <si>
-    <t>Totals Only</t>
-  </si>
-  <si>
-    <t>1 year (fees apply)</t>
-  </si>
-  <si>
-    <t>9902900000002920139108</t>
-  </si>
-  <si>
-    <t>Standard (Central Billing)</t>
-  </si>
-  <si>
-    <t>600817406</t>
-  </si>
-  <si>
-    <t>4804889027</t>
-  </si>
-  <si>
-    <t>Client Initiation</t>
-  </si>
-  <si>
-    <t>OLBB ACH Module</t>
-  </si>
-  <si>
-    <t>Credits</t>
-  </si>
-  <si>
-    <t>sandeep@gale.com</t>
-  </si>
-  <si>
-    <t>Direct Transmission</t>
-  </si>
-  <si>
-    <t>xyz</t>
-  </si>
-  <si>
-    <t>Both</t>
-  </si>
-  <si>
-    <t>Batch posting (fees apply)</t>
-  </si>
-  <si>
-    <t>Individual Returns(non-standard)</t>
-  </si>
-  <si>
-    <t>Origination History</t>
-  </si>
-  <si>
-    <t>sandy_sdc@gale.com</t>
-  </si>
-  <si>
-    <t>Selective Access</t>
-  </si>
-  <si>
-    <t>Retail</t>
-  </si>
-  <si>
-    <t>Milwaukee, WI</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>1213</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Discard</t>
-  </si>
-  <si>
-    <t>Send to BMO International Collections</t>
-  </si>
-  <si>
-    <t>Max 250 (standard)</t>
-  </si>
-  <si>
-    <t>Monday-Friday(Standard)</t>
-  </si>
-  <si>
-    <t>Secure email (2 max)</t>
-  </si>
-  <si>
-    <t>sandeep@gmail.com</t>
-  </si>
-  <si>
-    <t>No(standard)</t>
-  </si>
-  <si>
-    <t>1232</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Other (Please specify)</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>1233</t>
-  </si>
-  <si>
-    <t>1234</t>
-  </si>
-  <si>
-    <t>Required</t>
-  </si>
-  <si>
-    <t>Monday-Saturday</t>
-  </si>
-  <si>
-    <t>File Transfer via Transmission</t>
-  </si>
-  <si>
-    <t>Transmit Invoice File for Matching</t>
-  </si>
-  <si>
-    <t>Checks only</t>
-  </si>
-  <si>
-    <t>Front only</t>
-  </si>
-  <si>
-    <t>Color</t>
-  </si>
-  <si>
-    <t>90 Days(standard)</t>
-  </si>
-  <si>
-    <t>Individual Lockbox Per CD (by lockbox)</t>
-  </si>
-  <si>
-    <t>Single Copy(standard)</t>
-  </si>
-  <si>
-    <t>Weekly</t>
-  </si>
-  <si>
-    <t>Courier</t>
-  </si>
-  <si>
-    <t>UPS</t>
-  </si>
-  <si>
-    <t>Air</t>
-  </si>
-  <si>
-    <t>ALABAMA</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Messenger</t>
-  </si>
-  <si>
-    <t>Check Amount</t>
-  </si>
-  <si>
-    <t>Alphanumeric</t>
-  </si>
-  <si>
-    <t>BAI</t>
-  </si>
-  <si>
-    <t>Other (please specify)</t>
-  </si>
-  <si>
-    <t>Wholesale/Basic</t>
-  </si>
-  <si>
-    <t>Max 50 (Standard)</t>
-  </si>
-  <si>
-    <t>Bradenton, FL</t>
-  </si>
-  <si>
-    <t>Return</t>
-  </si>
-  <si>
-    <t>Other (1-49, please specify)</t>
-  </si>
-  <si>
-    <t>def po</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>AM</t>
-  </si>
-  <si>
-    <t>sandy_sdc@galepartners.com</t>
-  </si>
-  <si>
-    <t>sandee@gale.com</t>
-  </si>
-  <si>
-    <t>Global Access</t>
-  </si>
-  <si>
-    <t>Vendor Initiation</t>
-  </si>
-  <si>
-    <t>Debits</t>
-  </si>
-  <si>
-    <t>ADP - Baltimore</t>
-  </si>
-  <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t>232323.0</t>
-  </si>
-  <si>
-    <t>343434.0</t>
-  </si>
-  <si>
-    <t>Yes (fees may apply)</t>
-  </si>
-  <si>
-    <t>Draw &amp; View</t>
-  </si>
-  <si>
-    <t>2 years (fees may apply)</t>
-  </si>
-  <si>
-    <t>Debit &amp; Credit</t>
-  </si>
-  <si>
     <t>s</t>
-  </si>
-  <si>
-    <t>VIRGINIA</t>
-  </si>
-  <si>
-    <t>Telephone</t>
-  </si>
-  <si>
-    <t>None (Standard)</t>
-  </si>
-  <si>
-    <t>Domestic</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>OLBB</t>
-  </si>
-  <si>
-    <t>Addison, IL</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>Hybrid</t>
-  </si>
-  <si>
-    <t>Minneapolis, MN</t>
-  </si>
-  <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>BMO Client</t>
-  </si>
-  <si>
-    <t>International</t>
-  </si>
-  <si>
-    <t>Third Party</t>
-  </si>
-  <si>
-    <t>Atlanta</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>10001</t>
-  </si>
-  <si>
-    <t>321</t>
-  </si>
-  <si>
-    <t>Naveen</t>
-  </si>
-  <si>
-    <t>SD</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>DVG</t>
-  </si>
-  <si>
-    <t>ALASKA</t>
-  </si>
-  <si>
-    <t>1212121212</t>
-  </si>
-  <si>
-    <t>1234567890</t>
-  </si>
-  <si>
-    <t>Dallas, TX</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>No Sorting Required(Standard)</t>
-  </si>
-  <si>
-    <t>Maximum 50 (Standard)</t>
-  </si>
-  <si>
-    <t>Monthly (Standard)</t>
-  </si>
-  <si>
-    <t>Match:Check photo matched to back-up(no staple)</t>
-  </si>
-  <si>
-    <t>USPS First Class</t>
-  </si>
-  <si>
-    <t>gale</t>
-  </si>
-  <si>
-    <t>Atlanta, GA</t>
-  </si>
-  <si>
-    <t>Return and Do Not Process</t>
-  </si>
-  <si>
-    <t>Sorting Required</t>
-  </si>
-  <si>
-    <t>Other (1-49) please specify</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Daily</t>
-  </si>
-  <si>
-    <t>Check Amount/Routing Transit Number</t>
-  </si>
-  <si>
-    <t>Numeric</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>PM</t>
-  </si>
-  <si>
-    <t>Monday-Friday(standard)</t>
-  </si>
-  <si>
-    <t>Other(Please Specify)</t>
-  </si>
-  <si>
-    <t>Checks, Invoices/Coupons &amp; All associated backup including correspondence only</t>
-  </si>
-  <si>
-    <t>Front and Back</t>
-  </si>
-  <si>
-    <t>Black &amp; White</t>
-  </si>
-  <si>
-    <t>360 days</t>
-  </si>
-  <si>
-    <t>add</t>
-  </si>
-  <si>
-    <t>delete</t>
-  </si>
-  <si>
-    <t>Individual Lockbox per CD (by lockbox)</t>
-  </si>
-  <si>
-    <t>Single Copy (standard)</t>
-  </si>
-  <si>
-    <t>Monthly(standard)</t>
-  </si>
-  <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>Credit</t>
-  </si>
-  <si>
-    <t>File Posting (standard)</t>
-  </si>
-  <si>
-    <t>Summary Totals (standard)</t>
-  </si>
-  <si>
-    <t>Debit</t>
-  </si>
-  <si>
-    <t>Batch Posting (fees apply)</t>
-  </si>
-  <si>
-    <t>Individual Returns (non-standard)</t>
-  </si>
-  <si>
-    <t>NSD</t>
-  </si>
-  <si>
-    <t>Create Only</t>
-  </si>
-  <si>
-    <t>Naveen SD</t>
-  </si>
-  <si>
-    <t>(121) 212-1212</t>
-  </si>
-  <si>
-    <t>(123) 456-7890</t>
-  </si>
-  <si>
-    <t>E-Statement &amp; Paper</t>
-  </si>
-  <si>
-    <t>1223</t>
-  </si>
-  <si>
-    <t>1224</t>
-  </si>
-  <si>
-    <t>11234</t>
-  </si>
-  <si>
-    <t>File Upload/Download via OLBB</t>
   </si>
 </sst>
 </file>
@@ -687,23 +606,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin panose="020F0502020204030204" typeface="Calibri"/>
@@ -739,23 +641,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -908,221 +793,215 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B70"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="53.1796875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.1796875" collapsed="true"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2">
       <c r="B2" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="s">
-        <v>174</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" t="s">
-        <v>174</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" t="s">
-        <v>174</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" t="s">
-        <v>174</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40">
       <c r="B40" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43">
@@ -1132,547 +1011,442 @@
     </row>
     <row r="44">
       <c r="B44" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45">
       <c r="B45" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46">
       <c r="B46" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47">
       <c r="B47" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48">
       <c r="B48" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49">
       <c r="B49" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50">
       <c r="B50" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51">
       <c r="B51" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52">
       <c r="B52" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53">
       <c r="B53" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54">
       <c r="B54" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55">
       <c r="B55" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56">
       <c r="B56" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57">
       <c r="B57" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58">
       <c r="B58" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59">
       <c r="B59" t="s">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60">
       <c r="B60" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61">
       <c r="B61" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62">
       <c r="B62" t="s">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63">
       <c r="B63" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64">
       <c r="B64" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65">
       <c r="B65" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66">
       <c r="B66" t="s">
-        <v>98</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67">
       <c r="B67" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68">
       <c r="B68" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69">
       <c r="B69" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70">
       <c r="B70" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71">
       <c r="B71" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72">
       <c r="B72" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73">
       <c r="B73" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74">
       <c r="B74" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75">
       <c r="B75" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76">
       <c r="B76" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77">
       <c r="B77" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78">
       <c r="B78" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79">
       <c r="B79" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80">
       <c r="B80" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81">
       <c r="B81" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82">
       <c r="B82" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83">
       <c r="B83" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84">
       <c r="B84" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85">
       <c r="B85" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86">
       <c r="B86" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87">
       <c r="B87" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88">
       <c r="B88" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89">
       <c r="B89" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90">
       <c r="B90" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91">
       <c r="B91" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92">
       <c r="B92" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93">
       <c r="B93" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94">
       <c r="B94" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="95">
       <c r="B95" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96">
       <c r="B96" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97">
       <c r="B97" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="98">
       <c r="B98" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99">
       <c r="B99" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="100">
       <c r="B100" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="101">
       <c r="B101" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="102">
       <c r="B102" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="103">
       <c r="B103" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="104">
       <c r="B104" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="105">
       <c r="B105" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="106">
       <c r="B106" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="107">
       <c r="B107" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="108">
       <c r="B108" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="109">
       <c r="B109" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="110">
       <c r="B110" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="111">
       <c r="B111" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="112">
       <c r="B112" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="113">
       <c r="B113" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="114">
       <c r="B114" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="115">
       <c r="B115" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="116">
       <c r="B116" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="117">
       <c r="B117" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="118">
       <c r="B118" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="119">
       <c r="B119" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="120">
       <c r="B120" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="121">
       <c r="B121" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="122">
       <c r="B122" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="123">
       <c r="B123" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="124">
       <c r="B124" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="125">
       <c r="B125" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="126">
       <c r="B126" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="127">
       <c r="B127" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="128">
       <c r="B128" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="129">
       <c r="B129" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="130">
       <c r="B130" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="131">
       <c r="B131" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="B132" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="B133" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="B134" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="B135" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="B136" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="B137" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="B138" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="B139" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="B140" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="B141" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="B142" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="B143" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="B144" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="B145" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="B146" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="B147" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="B148" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="B149" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="B150" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="B151" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="B152" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/storeandverify.xlsx
+++ b/Excel/storeandverify.xlsx
@@ -19,11 +19,83 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7438" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6186" uniqueCount="150">
   <si>
     <t>sugar kane</t>
   </si>
   <si>
+    <t>Retail</t>
+  </si>
+  <si>
+    <t>Milwaukee, WI</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>4804889027</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>1213</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Discard</t>
+  </si>
+  <si>
+    <t>Send to BMO International Collections</t>
+  </si>
+  <si>
+    <t>Max 250 (standard)</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>Monday-Friday(Standard)</t>
+  </si>
+  <si>
+    <t>Secure email (2 max)</t>
+  </si>
+  <si>
+    <t>sandeep@gmail.com</t>
+  </si>
+  <si>
+    <t>No(standard)</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>380151359</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>NSD</t>
+  </si>
+  <si>
+    <t>1234567890</t>
+  </si>
+  <si>
+    <t>abc@gmail.com</t>
+  </si>
+  <si>
     <t>Ficken Karen</t>
   </si>
   <si>
@@ -33,448 +105,370 @@
     <t>343434</t>
   </si>
   <si>
-    <t>380151359</t>
-  </si>
-  <si>
     <t>2920139108</t>
   </si>
   <si>
+    <t>Standard (Central Billing)</t>
+  </si>
+  <si>
+    <t>E-Statement &amp; Paper</t>
+  </si>
+  <si>
+    <t>Paper Report (non-standard)</t>
+  </si>
+  <si>
+    <t>1 year (fees may apply)</t>
+  </si>
+  <si>
+    <t>Totals Only</t>
+  </si>
+  <si>
+    <t>4 months (fees apply)</t>
+  </si>
+  <si>
+    <t>1 year (fees apply)</t>
+  </si>
+  <si>
     <t>Individual Account Level (Separate Billing)</t>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>4804889027</t>
-  </si>
-  <si>
     <t>E-Statement Only (Standard)</t>
   </si>
   <si>
-    <t>Paper Report (non-standard)</t>
-  </si>
-  <si>
     <t>8274011116</t>
   </si>
   <si>
     <t>2 years (fees may apply)</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Reporting Details</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>E-Statement &amp; Paper</t>
+    <t>1232</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Other (Please specify)</t>
+  </si>
+  <si>
+    <t>1233</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>Required</t>
+  </si>
+  <si>
+    <t>Monday-Saturday</t>
+  </si>
+  <si>
+    <t>File Transfer via Transmission</t>
+  </si>
+  <si>
+    <t>Transmit Invoice File for Matching</t>
+  </si>
+  <si>
+    <t>Checks only</t>
+  </si>
+  <si>
+    <t>Front only</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>90 Days(standard)</t>
+  </si>
+  <si>
+    <t>Individual Lockbox Per CD (by lockbox)</t>
+  </si>
+  <si>
+    <t>Single Copy(standard)</t>
+  </si>
+  <si>
+    <t>Weekly</t>
+  </si>
+  <si>
+    <t>Courier</t>
+  </si>
+  <si>
+    <t>UPS</t>
+  </si>
+  <si>
+    <t>Air</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Messenger</t>
+  </si>
+  <si>
+    <t>Check Amount</t>
+  </si>
+  <si>
+    <t>Alphanumeric</t>
+  </si>
+  <si>
+    <t>BAI</t>
+  </si>
+  <si>
+    <t>Other (please specify)</t>
+  </si>
+  <si>
+    <t>Wholesale/Basic</t>
+  </si>
+  <si>
+    <t>Max 50 (Standard)</t>
+  </si>
+  <si>
+    <t>Bradenton, FL</t>
+  </si>
+  <si>
+    <t>Return</t>
+  </si>
+  <si>
+    <t>Other (1-49, please specify)</t>
+  </si>
+  <si>
+    <t>def po</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>Hybrid</t>
+  </si>
+  <si>
+    <t>Minneapolis, MN</t>
+  </si>
+  <si>
+    <t>Return and Do Not Process</t>
+  </si>
+  <si>
+    <t>1223</t>
+  </si>
+  <si>
+    <t>1224</t>
+  </si>
+  <si>
+    <t>11234</t>
+  </si>
+  <si>
+    <t>File Upload/Download via OLBB</t>
+  </si>
+  <si>
+    <t>Telephone</t>
+  </si>
+  <si>
+    <t>None (Standard)</t>
+  </si>
+  <si>
+    <t>Domestic</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>OLBB</t>
+  </si>
+  <si>
+    <t>Both</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>BMO Client</t>
+  </si>
+  <si>
+    <t>International</t>
+  </si>
+  <si>
+    <t>Third Party</t>
+  </si>
+  <si>
+    <t>Atlanta</t>
+  </si>
+  <si>
+    <t>ALABAMA</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>10001</t>
+  </si>
+  <si>
+    <t>321</t>
+  </si>
+  <si>
+    <t>Naveen SD</t>
+  </si>
+  <si>
+    <t>Naveen</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>DVG</t>
+  </si>
+  <si>
+    <t>ALASKA</t>
+  </si>
+  <si>
+    <t>(121) 212-1212</t>
+  </si>
+  <si>
+    <t>(123) 456-7890</t>
+  </si>
+  <si>
+    <t>Dallas, TX</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>No Sorting Required(Standard)</t>
+  </si>
+  <si>
+    <t>Maximum 50 (Standard)</t>
+  </si>
+  <si>
+    <t>Monthly (Standard)</t>
+  </si>
+  <si>
+    <t>Match:Check photo matched to back-up(no staple)</t>
+  </si>
+  <si>
+    <t>USPS First Class</t>
+  </si>
+  <si>
+    <t>gale</t>
+  </si>
+  <si>
+    <t>Atlanta, GA</t>
+  </si>
+  <si>
+    <t>Sorting Required</t>
+  </si>
+  <si>
+    <t>Other (1-49) please specify</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>Check Amount/Routing Transit Number</t>
+  </si>
+  <si>
+    <t>Numeric</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>Monday-Friday(standard)</t>
+  </si>
+  <si>
+    <t>Other(Please Specify)</t>
+  </si>
+  <si>
+    <t>Checks, Invoices/Coupons &amp; All associated backup including correspondence only</t>
+  </si>
+  <si>
+    <t>Front and Back</t>
+  </si>
+  <si>
+    <t>Black &amp; White</t>
+  </si>
+  <si>
+    <t>360 days</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>Individual Lockbox per CD (by lockbox)</t>
+  </si>
+  <si>
+    <t>Single Copy (standard)</t>
+  </si>
+  <si>
+    <t>Monthly(standard)</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>Addison, IL</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>Create Only</t>
+  </si>
+  <si>
+    <t>Credits</t>
+  </si>
+  <si>
+    <t>9902900000000380151359</t>
+  </si>
+  <si>
+    <t>9902900000002920139108</t>
   </si>
   <si>
     <t>Yes (fees may apply)</t>
   </si>
   <si>
-    <t>4 months (fees apply)</t>
-  </si>
-  <si>
-    <t>9902900000000380151359</t>
-  </si>
-  <si>
-    <t>Debit &amp; Credit</t>
-  </si>
-  <si>
-    <t>1234</t>
-  </si>
-  <si>
     <t>Draw &amp; View</t>
   </si>
   <si>
-    <t>Retail</t>
-  </si>
-  <si>
-    <t>Milwaukee, WI</t>
-  </si>
-  <si>
-    <t>xyz</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>1213</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Discard</t>
-  </si>
-  <si>
-    <t>Send to BMO International Collections</t>
-  </si>
-  <si>
-    <t>Max 250 (standard)</t>
-  </si>
-  <si>
-    <t>Monday-Friday(Standard)</t>
-  </si>
-  <si>
-    <t>Secure email (2 max)</t>
-  </si>
-  <si>
-    <t>sandeep@gmail.com</t>
-  </si>
-  <si>
-    <t>No(standard)</t>
-  </si>
-  <si>
-    <t>1232</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Other (Please specify)</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>1233</t>
-  </si>
-  <si>
-    <t>Required</t>
-  </si>
-  <si>
-    <t>Monday-Saturday</t>
-  </si>
-  <si>
-    <t>File Transfer via Transmission</t>
-  </si>
-  <si>
-    <t>Transmit Invoice File for Matching</t>
-  </si>
-  <si>
-    <t>Checks only</t>
-  </si>
-  <si>
-    <t>Front only</t>
-  </si>
-  <si>
-    <t>Color</t>
-  </si>
-  <si>
-    <t>90 Days(standard)</t>
-  </si>
-  <si>
-    <t>Individual Lockbox Per CD (by lockbox)</t>
-  </si>
-  <si>
-    <t>Single Copy(standard)</t>
-  </si>
-  <si>
-    <t>Weekly</t>
-  </si>
-  <si>
-    <t>Courier</t>
-  </si>
-  <si>
-    <t>UPS</t>
-  </si>
-  <si>
-    <t>Air</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Messenger</t>
-  </si>
-  <si>
-    <t>Check Amount</t>
-  </si>
-  <si>
-    <t>Alphanumeric</t>
-  </si>
-  <si>
-    <t>BAI</t>
-  </si>
-  <si>
-    <t>Other (please specify)</t>
-  </si>
-  <si>
-    <t>Wholesale/Basic</t>
-  </si>
-  <si>
-    <t>Max 50 (Standard)</t>
-  </si>
-  <si>
-    <t>Bradenton, FL</t>
-  </si>
-  <si>
-    <t>Return</t>
-  </si>
-  <si>
-    <t>Other (1-49, please specify)</t>
-  </si>
-  <si>
-    <t>def po</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>AM</t>
-  </si>
-  <si>
-    <t>Hybrid</t>
-  </si>
-  <si>
-    <t>Minneapolis, MN</t>
-  </si>
-  <si>
-    <t>Return and Do Not Process</t>
-  </si>
-  <si>
-    <t>1223</t>
-  </si>
-  <si>
-    <t>1224</t>
-  </si>
-  <si>
-    <t>11234</t>
-  </si>
-  <si>
-    <t>File Upload/Download via OLBB</t>
-  </si>
-  <si>
-    <t>Telephone</t>
-  </si>
-  <si>
-    <t>None (Standard)</t>
-  </si>
-  <si>
-    <t>Domestic</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>OLBB</t>
-  </si>
-  <si>
-    <t>Both</t>
-  </si>
-  <si>
-    <t>abc@gmail.com</t>
-  </si>
-  <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>BMO Client</t>
-  </si>
-  <si>
-    <t>International</t>
-  </si>
-  <si>
-    <t>Third Party</t>
-  </si>
-  <si>
-    <t>Atlanta</t>
-  </si>
-  <si>
-    <t>ALABAMA</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>10001</t>
-  </si>
-  <si>
-    <t>321</t>
-  </si>
-  <si>
-    <t>Naveen SD</t>
-  </si>
-  <si>
-    <t>Naveen</t>
-  </si>
-  <si>
-    <t>SD</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>DVG</t>
-  </si>
-  <si>
-    <t>ALASKA</t>
-  </si>
-  <si>
-    <t>(121) 212-1212</t>
-  </si>
-  <si>
-    <t>(123) 456-7890</t>
-  </si>
-  <si>
-    <t>Dallas, TX</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>No Sorting Required(Standard)</t>
-  </si>
-  <si>
-    <t>Maximum 50 (Standard)</t>
-  </si>
-  <si>
-    <t>Monthly (Standard)</t>
-  </si>
-  <si>
-    <t>Match:Check photo matched to back-up(no staple)</t>
-  </si>
-  <si>
-    <t>USPS First Class</t>
-  </si>
-  <si>
-    <t>gale</t>
-  </si>
-  <si>
-    <t>Atlanta, GA</t>
-  </si>
-  <si>
-    <t>Sorting Required</t>
-  </si>
-  <si>
-    <t>Other (1-49) please specify</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Daily</t>
-  </si>
-  <si>
-    <t>Check Amount/Routing Transit Number</t>
-  </si>
-  <si>
-    <t>Numeric</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>PM</t>
-  </si>
-  <si>
-    <t>Monday-Friday(standard)</t>
-  </si>
-  <si>
-    <t>Other(Please Specify)</t>
-  </si>
-  <si>
-    <t>Checks, Invoices/Coupons &amp; All associated backup including correspondence only</t>
-  </si>
-  <si>
-    <t>Front and Back</t>
-  </si>
-  <si>
-    <t>Black &amp; White</t>
-  </si>
-  <si>
-    <t>360 days</t>
-  </si>
-  <si>
-    <t>add</t>
-  </si>
-  <si>
-    <t>delete</t>
-  </si>
-  <si>
-    <t>Individual Lockbox per CD (by lockbox)</t>
-  </si>
-  <si>
-    <t>Single Copy (standard)</t>
-  </si>
-  <si>
-    <t>Monthly(standard)</t>
-  </si>
-  <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>Addison, IL</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>NSD</t>
-  </si>
-  <si>
-    <t>1234567890</t>
-  </si>
-  <si>
-    <t>Create Only</t>
-  </si>
-  <si>
-    <t>Credits</t>
-  </si>
-  <si>
-    <t>1 year (fees may apply)</t>
-  </si>
-  <si>
-    <t>Totals Only</t>
-  </si>
-  <si>
-    <t>1 year (fees apply)</t>
-  </si>
-  <si>
-    <t>9902900000002920139108</t>
-  </si>
-  <si>
-    <t>Standard (Central Billing)</t>
-  </si>
-  <si>
     <t>Electronic Report (standard)</t>
-  </si>
-  <si>
-    <t>s</t>
   </si>
 </sst>
 </file>
@@ -801,652 +795,652 @@
   <sheetData>
     <row r="2">
       <c r="B2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40">
       <c r="B40" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43">
       <c r="B43" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44">
       <c r="B44" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45">
       <c r="B45" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46">
       <c r="B46" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47">
       <c r="B47" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48">
       <c r="B48" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49">
       <c r="B49" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50">
       <c r="B50" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51">
       <c r="B51" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52">
       <c r="B52" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53">
       <c r="B53" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54">
       <c r="B54" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55">
       <c r="B55" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56">
       <c r="B56" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57">
       <c r="B57" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58">
       <c r="B58" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59">
       <c r="B59" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60">
       <c r="B60" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61">
       <c r="B61" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62">
       <c r="B62" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63">
       <c r="B63" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64">
       <c r="B64" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65">
       <c r="B65" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66">
       <c r="B66" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67">
       <c r="B67" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68">
       <c r="B68" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69">
       <c r="B69" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70">
       <c r="B70" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71">
       <c r="B71" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72">
       <c r="B72" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73">
       <c r="B73" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74">
       <c r="B74" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75">
       <c r="B75" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76">
       <c r="B76" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77">
       <c r="B77" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78">
       <c r="B78" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79">
       <c r="B79" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80">
       <c r="B80" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81">
       <c r="B81" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82">
       <c r="B82" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83">
       <c r="B83" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84">
       <c r="B84" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85">
       <c r="B85" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86">
       <c r="B86" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87">
       <c r="B87" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88">
       <c r="B88" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89">
       <c r="B89" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90">
       <c r="B90" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91">
       <c r="B91" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92">
       <c r="B92" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="93">
       <c r="B93" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="94">
       <c r="B94" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="95">
       <c r="B95" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="96">
       <c r="B96" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="97">
       <c r="B97" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98">
       <c r="B98" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="99">
       <c r="B99" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="100">
       <c r="B100" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="101">
       <c r="B101" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="102">
       <c r="B102" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="103">
       <c r="B103" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="104">
       <c r="B104" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="105">
       <c r="B105" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="106">
       <c r="B106" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="107">
       <c r="B107" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="108">
       <c r="B108" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="109">
       <c r="B109" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="110">
       <c r="B110" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="111">
       <c r="B111" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="112">
       <c r="B112" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="113">
       <c r="B113" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="114">
       <c r="B114" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="115">
       <c r="B115" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="116">
       <c r="B116" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="117">
       <c r="B117" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="118">
       <c r="B118" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="119">
       <c r="B119" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="120">
       <c r="B120" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="121">
       <c r="B121" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="122">
       <c r="B122" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="123">
       <c r="B123" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="124">
       <c r="B124" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="125">
       <c r="B125" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="126">
       <c r="B126" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="127">
       <c r="B127" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="128">
       <c r="B128" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="129">
       <c r="B129" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="130">
       <c r="B130" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="131">
       <c r="B131" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
